--- a/public/excelop/template/finance_d.xlsx
+++ b/public/excelop/template/finance_d.xlsx
@@ -4,115 +4,55 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8265"/>
+    <workbookView windowWidth="28695" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>明细</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>实收金额</t>
-  </si>
-  <si>
-    <t>优惠类型</t>
-  </si>
-  <si>
-    <t>付款状态</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>配送地址</t>
-  </si>
-  <si>
-    <t>开票信息</t>
-  </si>
-  <si>
-    <t>抬头</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.id%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.source%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.bookingno%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.linkname%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.linktel%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numtotal%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.detail%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.pricetotalold%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.pricetotal%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.pricetotal!=rs1.pricetotalold?'首单优惠':' '%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.paytype%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.type%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.status%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.addressname+rs1.addressdetail%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.makeout%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoicetitle%&gt;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>订餐时间</t>
+  </si>
+  <si>
+    <t>A套餐数量</t>
+  </si>
+  <si>
+    <t>B套餐数量</t>
+  </si>
+  <si>
+    <t>总数量</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.cname%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.date2%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numA%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numB%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numTotal%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.priceTotal%&gt;</t>
   </si>
   <si>
     <t>&lt;%forRBegin rs1,i in _data_%&gt;</t>
@@ -146,7 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,29 +95,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -188,42 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -232,6 +113,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -240,30 +203,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -273,29 +228,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,31 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,126 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,24 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,17 +478,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,7 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,41 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +583,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,154 +595,145 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -859,6 +790,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1191,139 +1123,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="14" width="38.25" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17.25" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="17:17">
-      <c r="Q3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P2"/>
+  <autoFilter ref="A1:F2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/public/excelop/template/finance_d.xlsx
+++ b/public/excelop/template/finance_d.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>公司</t>
   </si>
   <si>
+    <t>送餐类别</t>
+  </si>
+  <si>
     <t>订餐时间</t>
   </si>
   <si>
@@ -31,6 +34,12 @@
     <t>B套餐数量</t>
   </si>
   <si>
+    <t>C套餐数量</t>
+  </si>
+  <si>
+    <t>D套餐数量</t>
+  </si>
+  <si>
     <t>总数量</t>
   </si>
   <si>
@@ -40,6 +49,9 @@
     <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.sendtype%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.date2%&gt;</t>
   </si>
   <si>
@@ -47,6 +59,12 @@
   </si>
   <si>
     <t>&lt;%=rs1.numB%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numC%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numD%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.numTotal%&gt;</t>
@@ -66,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -85,6 +103,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -92,9 +180,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -106,90 +228,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,39 +243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,37 +274,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,109 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +516,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +548,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,11 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,148 +598,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,23 +1141,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:6">
+    <row r="1" ht="17.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,37 +1178,55 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="7:7">
-      <c r="G3" t="s">
-        <v>13</v>
+    <row r="3" spans="10:10">
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
+  <autoFilter ref="A1:I2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/public/excelop/template/finance_d.xlsx
+++ b/public/excelop/template/finance_d.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>公司</t>
   </si>
@@ -73,17 +73,26 @@
     <t>&lt;%=rs1.priceTotal%&gt;</t>
   </si>
   <si>
-    <t>&lt;%forRBegin rs1,i in _data_%&gt;</t>
-  </si>
-  <si>
     <t>&lt;%forREnd(1)%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 外卖侠TakeAwayHero Daily Report  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_data_[0][0].date%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -101,6 +110,27 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -116,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,13 +182,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +222,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,6 +245,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="bai ying logo-02.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9593580" y="53590"/>
+          <a:ext cx="314325" cy="843284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="bai ying logo-02.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9593580" y="53590"/>
+          <a:ext cx="771525" cy="786134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -530,76 +673,94 @@
     <col min="9" max="9" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
+  <autoFilter ref="A2:I3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excelop/template/finance_d.xlsx
+++ b/public/excelop/template/finance_d.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19392" windowHeight="10992"/>
+    <workbookView windowWidth="20385" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>&lt;%=_data_[0][0].date%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 外卖侠TakeAwayHero Daily Report  </t>
+  </si>
   <si>
     <t>公司</t>
   </si>
@@ -28,18 +34,6 @@
     <t>订餐时间</t>
   </si>
   <si>
-    <t>A套餐数量</t>
-  </si>
-  <si>
-    <t>B套餐数量</t>
-  </si>
-  <si>
-    <t>C套餐数量</t>
-  </si>
-  <si>
-    <t>D套餐数量</t>
-  </si>
-  <si>
     <t>总数量</t>
   </si>
   <si>
@@ -55,48 +49,46 @@
     <t>&lt;%=rs1.date2%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.numA%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numB%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numC%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.numD%&gt;</t>
-  </si>
-  <si>
     <t>&lt;%=rs1.numTotal%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.priceTotal%&gt;</t>
   </si>
   <si>
+    <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%forREnd(1)%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 外卖侠TakeAwayHero Daily Report  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_data_[0][0].date%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -106,33 +98,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,12 +262,209 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -174,22 +488,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -200,13 +499,259 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -214,30 +759,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,87 +837,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="bai ying logo-02.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9593580" y="53590"/>
-          <a:ext cx="314325" cy="843284"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="bai ying logo-02.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9593580" y="53590"/>
-          <a:ext cx="771525" cy="786134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,116 +1162,85 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.3671875" customWidth="1"/>
-    <col min="2" max="3" width="22.26171875" customWidth="1"/>
-    <col min="4" max="4" width="20.3671875" customWidth="1"/>
-    <col min="5" max="7" width="19.3671875" customWidth="1"/>
-    <col min="8" max="8" width="18.26171875" customWidth="1"/>
-    <col min="9" max="9" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="29.3666666666667" customWidth="1"/>
+    <col min="2" max="3" width="22.2583333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" s="1" customFormat="1" ht="70.5" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" ht="17.25" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I3"/>
+  <autoFilter ref="A2:E3"/>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>